--- a/data/trans_orig/P14B03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B03-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{730A9699-CF64-464C-8CB6-6CB92B290420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43281392-B1F0-4A91-912C-AAE68AC00E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3635D6D4-1F60-43C8-B288-3DB9B734D445}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96600AC6-F941-48DA-B187-31BEA142E1C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="482">
   <si>
     <t>Población cuya hipertensión le limita en 2012 (Tasa respuesta: 18,46%)</t>
   </si>
@@ -85,55 +85,55 @@
     <t>68,48%</t>
   </si>
   <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
   </si>
   <si>
     <t>70,12%</t>
   </si>
   <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>31,52%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,55 +145,55 @@
     <t>20,22%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
   </si>
   <si>
     <t>34,11%</t>
   </si>
   <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>28,02%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
   </si>
   <si>
     <t>79,78%</t>
   </si>
   <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
   </si>
   <si>
     <t>65,89%</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
   </si>
   <si>
     <t>71,98%</t>
   </si>
   <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,55 +202,55 @@
     <t>21,93%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
   </si>
   <si>
     <t>28,43%</t>
   </si>
   <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
   </si>
   <si>
     <t>78,07%</t>
   </si>
   <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
   </si>
   <si>
     <t>71,57%</t>
   </si>
   <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -259,1201 +259,1231 @@
     <t>20,38%</t>
   </si>
   <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya hipertensión le limita en 2015 (Tasa respuesta: 15,94%)</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>Población cuya hipertensión le limita en 2023 (Tasa respuesta: 26,1%)</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya hipertensión le limita en 2015 (Tasa respuesta: 15,94%)</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>Población cuya hipertensión le limita en 2023 (Tasa respuesta: 26,1%)</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>98,38%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
   </si>
   <si>
     <t>31,7%</t>
   </si>
   <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>23,16%</t>
   </si>
   <si>
-    <t>29,04%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
   </si>
   <si>
     <t>85,33%</t>
   </si>
   <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>68,3%</t>
   </si>
   <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
   <si>
     <t>76,84%</t>
   </si>
   <si>
-    <t>70,96%</t>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
   </si>
   <si>
     <t>93,58%</t>
   </si>
   <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>94,4%</t>
   </si>
   <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>19,7%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>89,8%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
   </si>
   <si>
     <t>85,26%</t>
   </si>
   <si>
-    <t>80,3%</t>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>9,03%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
   </si>
   <si>
     <t>95,14%</t>
   </si>
   <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>86,1%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>90,97%</t>
   </si>
   <si>
     <t>89,84%</t>
   </si>
   <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>10,79%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>94,6%</t>
   </si>
   <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>89,21%</t>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>12,39%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>4,07%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>5,96%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>87,61%</t>
   </si>
   <si>
     <t>86,55%</t>
   </si>
   <si>
-    <t>95,93%</t>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>85,01%</t>
   </si>
   <si>
-    <t>94,04%</t>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>90,09%</t>
   </si>
   <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>83,47%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>14,51%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>90,16%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>85,1%</t>
   </si>
   <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>85,49%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398AC9CC-B9F8-4010-B796-6A56E53FBFB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9A3DD3-D41C-4BE4-86C5-9C04E950EBDD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3378,7 +3408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD2E587-9C57-490C-97AB-C5253E8DE447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFADBC1A-E62B-4390-AA10-60181F59B1A6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3830,10 +3860,10 @@
         <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3842,13 +3872,13 @@
         <v>19033</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3893,13 @@
         <v>37837</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -3878,13 +3908,13 @@
         <v>41121</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -3893,13 +3923,13 @@
         <v>78959</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3997,13 @@
         <v>3848</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3982,13 +4012,13 @@
         <v>14953</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3997,13 +4027,13 @@
         <v>18801</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4048,13 @@
         <v>58089</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -4033,13 +4063,13 @@
         <v>62788</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>114</v>
@@ -4048,13 +4078,13 @@
         <v>120877</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4152,13 @@
         <v>7641</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4137,13 +4167,13 @@
         <v>11158</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4152,13 +4182,13 @@
         <v>18798</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4203,13 @@
         <v>18736</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -4188,13 +4218,13 @@
         <v>32458</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -4203,13 +4233,13 @@
         <v>51195</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4307,13 @@
         <v>13857</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4292,13 +4322,13 @@
         <v>12239</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -4307,13 +4337,13 @@
         <v>26096</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4358,13 @@
         <v>22362</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -4343,13 +4373,13 @@
         <v>35099</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -4358,13 +4388,13 @@
         <v>57461</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4462,13 @@
         <v>20886</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -4447,13 +4477,13 @@
         <v>24147</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -4462,13 +4492,13 @@
         <v>45033</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4513,13 @@
         <v>73652</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -4498,13 +4528,13 @@
         <v>74508</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>132</v>
@@ -4513,13 +4543,13 @@
         <v>148160</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4617,13 @@
         <v>32379</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -4602,13 +4632,13 @@
         <v>44674</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -4617,13 +4647,13 @@
         <v>77053</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,10 +4668,10 @@
         <v>97134</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>302</v>
@@ -4778,7 +4808,7 @@
         <v>316</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>40</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4823,13 @@
         <v>399566</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H29" s="7">
         <v>387</v>
@@ -4808,13 +4838,13 @@
         <v>452222</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M29" s="7">
         <v>781</v>
@@ -4823,13 +4853,13 @@
         <v>851788</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>49</v>
+        <v>325</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,7 +4939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B5CA3E-48AB-4ADD-AD6C-A15A5BFACDB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DB2F3F-5628-461F-97D6-AAA39FCB77B0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4926,7 +4956,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5033,13 +5063,13 @@
         <v>319</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5048,13 +5078,13 @@
         <v>2668</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -5063,13 +5093,13 @@
         <v>2987</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5114,13 @@
         <v>55857</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>114</v>
@@ -5099,13 +5129,13 @@
         <v>53606</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -5114,13 +5144,13 @@
         <v>109463</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5218,13 @@
         <v>13120</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -5203,13 +5233,13 @@
         <v>28176</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -5218,13 +5248,13 @@
         <v>41296</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5269,13 @@
         <v>76333</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>92</v>
@@ -5254,13 +5284,13 @@
         <v>60702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>162</v>
@@ -5269,13 +5299,13 @@
         <v>137035</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>105</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5373,13 @@
         <v>3050</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5358,13 +5388,13 @@
         <v>5372</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5373,13 +5403,13 @@
         <v>8422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5424,13 @@
         <v>63777</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
@@ -5409,13 +5439,13 @@
         <v>78252</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>228</v>
@@ -5424,13 +5454,13 @@
         <v>142029</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5528,13 @@
         <v>6982</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -5516,10 +5546,10 @@
         <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5528,13 +5558,13 @@
         <v>23834</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5579,13 @@
         <v>61482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>160</v>
@@ -5567,10 +5597,10 @@
         <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>236</v>
@@ -5579,13 +5609,13 @@
         <v>137850</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>235</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5683,13 @@
         <v>2310</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5668,13 +5698,13 @@
         <v>9362</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -5683,13 +5713,13 @@
         <v>11672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5734,13 @@
         <v>45236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -5719,13 +5749,13 @@
         <v>57996</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>216</v>
@@ -5734,13 +5764,13 @@
         <v>103231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5838,13 @@
         <v>4131</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -5823,13 +5853,13 @@
         <v>5859</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5838,13 +5868,13 @@
         <v>9991</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5889,13 @@
         <v>72370</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
@@ -5874,13 +5904,13 @@
         <v>58963</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>267</v>
@@ -5889,13 +5919,13 @@
         <v>131332</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5993,13 @@
         <v>21187</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>311</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -5978,13 +6008,13 @@
         <v>34342</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -5993,13 +6023,13 @@
         <v>55529</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6044,13 @@
         <v>93927</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>319</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H23" s="7">
         <v>183</v>
@@ -6029,28 +6059,28 @@
         <v>220949</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>194</v>
+        <v>441</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M23" s="7">
         <v>291</v>
       </c>
       <c r="N23" s="7">
-        <v>314876</v>
+        <v>314875</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,7 +6122,7 @@
         <v>367</v>
       </c>
       <c r="N24" s="7">
-        <v>370405</v>
+        <v>370404</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>32</v>
@@ -6118,13 +6148,13 @@
         <v>13919</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -6133,13 +6163,13 @@
         <v>30921</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -6148,13 +6178,13 @@
         <v>44841</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6199,13 @@
         <v>126527</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>222</v>
@@ -6184,13 +6214,13 @@
         <v>156182</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>378</v>
@@ -6199,13 +6229,13 @@
         <v>282708</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6303,13 @@
         <v>65018</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="H28" s="7">
         <v>230</v>
@@ -6288,13 +6318,13 @@
         <v>133553</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="M28" s="7">
         <v>307</v>
@@ -6303,13 +6333,13 @@
         <v>198571</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6354,13 @@
         <v>595508</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="H29" s="7">
         <v>1188</v>
@@ -6339,13 +6369,13 @@
         <v>763017</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="M29" s="7">
         <v>1975</v>
@@ -6354,13 +6384,13 @@
         <v>1358525</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B03-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43281392-B1F0-4A91-912C-AAE68AC00E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5A1A9C-A40E-4FE8-9051-41D9957FCAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96600AC6-F941-48DA-B187-31BEA142E1C2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F33F8907-197D-4C37-84FE-EA5019F2B53C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -85,55 +85,55 @@
     <t>68,48%</t>
   </si>
   <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
   </si>
   <si>
     <t>70,12%</t>
   </si>
   <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
   </si>
   <si>
     <t>31,52%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,55 +145,55 @@
     <t>20,22%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
   </si>
   <si>
     <t>34,11%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
   </si>
   <si>
     <t>28,02%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
   </si>
   <si>
     <t>79,78%</t>
   </si>
   <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>65,89%</t>
   </si>
   <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
   </si>
   <si>
     <t>71,98%</t>
   </si>
   <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,55 +202,55 @@
     <t>21,93%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
   </si>
   <si>
     <t>28,43%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
   </si>
   <si>
     <t>78,07%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
   </si>
   <si>
     <t>71,57%</t>
   </si>
   <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -259,55 +259,55 @@
     <t>20,38%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>79,62%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>82,64%</t>
   </si>
   <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -316,55 +316,55 @@
     <t>18,08%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>23,0%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>81,92%</t>
   </si>
   <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>72,0%</t>
   </si>
   <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>77,0%</t>
   </si>
   <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -373,988 +373,988 @@
     <t>13,96%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>9,41%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya hipertensión le limita en 2016 (Tasa respuesta: 15,94%)</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>21,24%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
   </si>
   <si>
     <t>78,76%</t>
   </si>
   <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya hipertensión le limita en 2015 (Tasa respuesta: 15,94%)</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>Población cuya hipertensión le limita en 2023 (Tasa respuesta: 26,1%)</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
   </si>
   <si>
     <t>86,66%</t>
   </si>
   <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
   </si>
   <si>
     <t>74,18%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>Población cuya hipertensión le limita en 2023 (Tasa respuesta: 26,1%)</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
   </si>
   <si>
     <t>87,61%</t>
@@ -1895,7 +1895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9A3DD3-D41C-4BE4-86C5-9C04E950EBDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EDCEFF-3124-4020-AF5F-C5C46F24828C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3408,7 +3408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFADBC1A-E62B-4390-AA10-60181F59B1A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D03C6A3-28B3-4A98-8FA9-99B5EA380A8D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3860,10 +3860,10 @@
         <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3872,13 +3872,13 @@
         <v>19033</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3893,13 @@
         <v>37837</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -3908,13 +3908,13 @@
         <v>41121</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -3923,13 +3923,13 @@
         <v>78959</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +3997,13 @@
         <v>3848</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4012,13 +4012,13 @@
         <v>14953</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4027,13 +4027,13 @@
         <v>18801</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4048,13 @@
         <v>58089</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -4063,13 +4063,13 @@
         <v>62788</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>114</v>
@@ -4078,13 +4078,13 @@
         <v>120877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4152,13 @@
         <v>7641</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4167,13 +4167,13 @@
         <v>11158</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4182,13 +4182,13 @@
         <v>18798</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4203,13 @@
         <v>18736</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -4218,13 +4218,13 @@
         <v>32458</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -4233,13 +4233,13 @@
         <v>51195</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4307,13 @@
         <v>13857</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4322,13 +4322,13 @@
         <v>12239</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -4337,13 +4337,13 @@
         <v>26096</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4358,13 @@
         <v>22362</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -4373,13 +4373,13 @@
         <v>35099</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -4388,13 +4388,13 @@
         <v>57461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4462,13 @@
         <v>20886</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -4477,13 +4477,13 @@
         <v>24147</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -4492,13 +4492,13 @@
         <v>45033</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4513,13 @@
         <v>73652</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -4528,13 +4528,13 @@
         <v>74508</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>132</v>
@@ -4543,13 +4543,13 @@
         <v>148160</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4617,13 @@
         <v>32379</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -4632,13 +4632,13 @@
         <v>44674</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -4647,13 +4647,13 @@
         <v>77053</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4668,13 @@
         <v>97134</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>93</v>
@@ -4683,13 +4683,13 @@
         <v>114152</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>190</v>
@@ -4698,13 +4698,13 @@
         <v>211286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4772,13 @@
         <v>114608</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H28" s="7">
         <v>152</v>
@@ -4787,13 +4787,13 @@
         <v>177181</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M28" s="7">
         <v>266</v>
@@ -4802,13 +4802,13 @@
         <v>291789</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4823,13 @@
         <v>399566</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H29" s="7">
         <v>387</v>
@@ -4838,13 +4838,13 @@
         <v>452222</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M29" s="7">
         <v>781</v>
@@ -4853,13 +4853,13 @@
         <v>851788</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,7 +4939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DB2F3F-5628-461F-97D6-AAA39FCB77B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4FD472-3731-4C30-BBF6-861B2935FDE3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5233,13 +5233,13 @@
         <v>28176</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -5248,13 +5248,13 @@
         <v>41296</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5269,13 @@
         <v>76333</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>92</v>
@@ -5284,13 +5284,13 @@
         <v>60702</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>162</v>
@@ -5299,13 +5299,13 @@
         <v>137035</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5373,13 @@
         <v>3050</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5388,13 +5388,13 @@
         <v>5372</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5403,13 +5403,13 @@
         <v>8422</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5424,13 @@
         <v>63777</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
@@ -5439,13 +5439,13 @@
         <v>78252</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>228</v>
@@ -5454,13 +5454,13 @@
         <v>142029</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5528,13 @@
         <v>6982</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>383</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -5546,10 +5546,10 @@
         <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5558,13 +5558,13 @@
         <v>23834</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5579,13 @@
         <v>61482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>160</v>
@@ -5597,10 +5597,10 @@
         <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>236</v>
@@ -5609,13 +5609,13 @@
         <v>137850</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5683,13 @@
         <v>2310</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5698,13 +5698,13 @@
         <v>9362</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -5713,13 +5713,13 @@
         <v>11672</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5734,13 @@
         <v>45236</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -5749,13 +5749,13 @@
         <v>57996</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>216</v>
@@ -5764,13 +5764,13 @@
         <v>103231</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5838,13 @@
         <v>4131</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -5853,13 +5853,13 @@
         <v>5859</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5868,13 +5868,13 @@
         <v>9991</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5889,13 @@
         <v>72370</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
@@ -5904,13 +5904,13 @@
         <v>58963</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>267</v>
@@ -5919,13 +5919,13 @@
         <v>131332</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5993,13 @@
         <v>21187</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -6008,13 +6008,13 @@
         <v>34342</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -6023,13 +6023,13 @@
         <v>55529</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,10 +6044,10 @@
         <v>93927</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>439</v>
